--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3278374.371156871</v>
+        <v>3273751.371753961</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>40.36809222617124</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.4651922790234</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="H3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.386866521745231</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25.34580260830151</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>47.3837968773324</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.38379687733241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52.6063073409206</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="E7" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="F7" t="n">
-        <v>52.60630734092062</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1331892653138</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>170.1331892653138</v>
+        <v>13.80371436173802</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>152.684799449067</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157371</v>
+        <v>55.7061047815736</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="T8" t="n">
-        <v>111.5955981395615</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>73.46744821986543</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>39.96033322209286</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653138</v>
+        <v>170.133189265314</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>170.1331892653138</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.008253155696124</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.31856917756</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416838</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.8197803271284</v>
+        <v>45.81978032712834</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116034</v>
+        <v>29.85685983116026</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>74.17667294659991</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.412931605085</v>
+        <v>170.133189265314</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>50.06209150957563</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.66650366117342</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.7414329637099</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>7.155999212082404</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701363</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>90.00079239153601</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>238.8507768231693</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>219.4517041866519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>2.607010073152018</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>247.2924896597638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>213.6019919131841</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="D2" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="E2" t="n">
+        <v>150.9382759771985</v>
+      </c>
+      <c r="F2" t="n">
         <v>99.94561517409093</v>
       </c>
-      <c r="C2" t="n">
-        <v>99.94561517409093</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99.94561517409093</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99.94561517409093</v>
-      </c>
-      <c r="F2" t="n">
-        <v>48.95295437098331</v>
-      </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="H2" t="n">
         <v>8.177103637477007</v>
@@ -4333,19 +4333,19 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>51.99721622092883</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M2" t="n">
-        <v>51.99721622092883</v>
+        <v>153.9723392949834</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9751230740546</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="O2" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4357,25 +4357,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="T2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="U2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="V2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="W2" t="n">
         <v>150.9382759771985</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>150.9382759771985</v>
       </c>
-      <c r="U2" t="n">
-        <v>99.94561517409093</v>
-      </c>
-      <c r="V2" t="n">
-        <v>99.94561517409093</v>
-      </c>
-      <c r="W2" t="n">
-        <v>99.94561517409093</v>
-      </c>
-      <c r="X2" t="n">
-        <v>99.94561517409093</v>
-      </c>
       <c r="Y2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.016601144929</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
         <v>4.038618735606123</v>
@@ -4409,19 +4409,19 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>51.99721622092883</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>51.99721622092883</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="M3" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N3" t="n">
-        <v>101.9751230740546</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="O3" t="n">
         <v>151.9530299271804</v>
@@ -4433,28 +4433,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="4">
@@ -4470,25 +4470,25 @@
         <v>63.50286188391095</v>
       </c>
       <c r="D4" t="n">
-        <v>63.50286188391095</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="E4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4518,10 +4518,10 @@
         <v>165.4881834901262</v>
       </c>
       <c r="T4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="U4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="V4" t="n">
         <v>114.4955226870186</v>
@@ -4533,7 +4533,7 @@
         <v>114.4955226870186</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.50286188391095</v>
+        <v>114.4955226870186</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="C5" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="D5" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="E5" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="F5" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>106.5058416586064</v>
       </c>
-      <c r="D5" t="n">
-        <v>106.5058416586064</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80.90402084214027</v>
-      </c>
-      <c r="F5" t="n">
-        <v>73.95852009293679</v>
-      </c>
-      <c r="G5" t="n">
-        <v>58.64342057039187</v>
-      </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4570,22 +4570,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="L5" t="n">
         <v>57.56206023926622</v>
       </c>
-      <c r="L5" t="n">
-        <v>110.8204150400826</v>
-      </c>
       <c r="M5" t="n">
-        <v>164.078769840899</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N5" t="n">
-        <v>164.078769840899</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O5" t="n">
-        <v>164.078769840899</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
-        <v>210.024473605</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4597,22 +4597,22 @@
         <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>167.322850834276</v>
+      </c>
+      <c r="C6" t="n">
+        <v>167.322850834276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>167.322850834276</v>
+      </c>
+      <c r="E6" t="n">
+        <v>167.322850834276</v>
+      </c>
+      <c r="F6" t="n">
+        <v>167.322850834276</v>
+      </c>
+      <c r="G6" t="n">
         <v>112.9831357023339</v>
       </c>
-      <c r="C6" t="n">
-        <v>112.9831357023339</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="H6" t="n">
         <v>58.64342057039187</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.303705438449811</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.303705438449811</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.303705438449811</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.303705438449811</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L6" t="n">
-        <v>63.86868055626314</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="M6" t="n">
         <v>108.6685623208577</v>
@@ -4664,34 +4664,34 @@
         <v>161.9269171216741</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.9831357023339</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="C7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8641862134551</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="E7" t="n">
-        <v>72.52447108151307</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="F7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="G7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="W7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="X7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>511.5411379489976</v>
+        <v>206.351008038966</v>
       </c>
       <c r="C8" t="n">
-        <v>511.5411379489976</v>
+        <v>206.351008038966</v>
       </c>
       <c r="D8" t="n">
-        <v>511.5411379489976</v>
+        <v>206.351008038966</v>
       </c>
       <c r="E8" t="n">
-        <v>511.5411379489976</v>
+        <v>34.49930171036598</v>
       </c>
       <c r="F8" t="n">
-        <v>339.6894316203977</v>
+        <v>27.55380096116252</v>
       </c>
       <c r="G8" t="n">
-        <v>167.8377252917979</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="H8" t="n">
-        <v>167.8377252917979</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821333</v>
+        <v>127.7362978821335</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821333</v>
+        <v>127.7362978821335</v>
       </c>
       <c r="L8" t="n">
-        <v>296.168155254794</v>
+        <v>128.5190723787506</v>
       </c>
       <c r="M8" t="n">
-        <v>464.6000126274547</v>
+        <v>296.9509297514114</v>
       </c>
       <c r="N8" t="n">
-        <v>507.9190664367314</v>
+        <v>465.3827871240723</v>
       </c>
       <c r="O8" t="n">
-        <v>530.1646890928156</v>
+        <v>512.1008996885951</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928156</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612553</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525951</v>
+        <v>624.2639643525957</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525951</v>
+        <v>452.4122580239957</v>
       </c>
       <c r="T8" t="n">
-        <v>511.5411379489976</v>
+        <v>452.4122580239957</v>
       </c>
       <c r="U8" t="n">
-        <v>511.5411379489976</v>
+        <v>452.4122580239957</v>
       </c>
       <c r="V8" t="n">
-        <v>511.5411379489976</v>
+        <v>452.4122580239957</v>
       </c>
       <c r="W8" t="n">
-        <v>511.5411379489976</v>
+        <v>280.5605516953957</v>
       </c>
       <c r="X8" t="n">
-        <v>511.5411379489976</v>
+        <v>206.351008038966</v>
       </c>
       <c r="Y8" t="n">
-        <v>511.5411379489976</v>
+        <v>206.351008038966</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>334.3967711310762</v>
+        <v>640.1687841096469</v>
       </c>
       <c r="C9" t="n">
-        <v>162.5450648024764</v>
+        <v>468.3170777810469</v>
       </c>
       <c r="D9" t="n">
-        <v>13.61065514122511</v>
+        <v>319.3826681197957</v>
       </c>
       <c r="E9" t="n">
-        <v>13.61065514122511</v>
+        <v>160.1452131143402</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122511</v>
+        <v>87.8897264357838</v>
       </c>
       <c r="K9" t="n">
-        <v>13.61065514122511</v>
+        <v>87.8897264357838</v>
       </c>
       <c r="L9" t="n">
-        <v>182.0425125138858</v>
+        <v>256.3215838084446</v>
       </c>
       <c r="M9" t="n">
-        <v>350.4743698865465</v>
+        <v>316.7973784014689</v>
       </c>
       <c r="N9" t="n">
-        <v>518.9062272592072</v>
+        <v>393.2824322417748</v>
       </c>
       <c r="O9" t="n">
-        <v>566.6553137562441</v>
+        <v>561.7142896144356</v>
       </c>
       <c r="P9" t="n">
-        <v>585.6450990606642</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612553</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612553</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612553</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="T9" t="n">
-        <v>508.6810507326555</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="U9" t="n">
-        <v>508.6810507326555</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="V9" t="n">
-        <v>502.6121081511442</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="W9" t="n">
-        <v>502.6121081511442</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="X9" t="n">
-        <v>502.6121081511442</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="Y9" t="n">
-        <v>502.6121081511442</v>
+        <v>680.5327570612559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.6137758125226</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="C10" t="n">
-        <v>515.6137758125226</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="D10" t="n">
-        <v>365.4971364001869</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="E10" t="n">
-        <v>365.4971364001869</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="F10" t="n">
-        <v>365.4971364001869</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="G10" t="n">
-        <v>196.4884806652778</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="H10" t="n">
-        <v>196.4884806652778</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="I10" t="n">
-        <v>59.8932615322639</v>
+        <v>59.89326153226385</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057981</v>
+        <v>68.90447724057989</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340619</v>
+        <v>195.1879671340621</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694245</v>
+        <v>338.7253240694248</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004847</v>
+        <v>484.2842999004851</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689134</v>
+        <v>602.7152779689138</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612553</v>
+        <v>680.5327570612559</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.374312787356</v>
+        <v>650.3743127873566</v>
       </c>
       <c r="R10" t="n">
-        <v>650.374312787356</v>
+        <v>650.3743127873566</v>
       </c>
       <c r="S10" t="n">
-        <v>650.374312787356</v>
+        <v>650.3743127873566</v>
       </c>
       <c r="T10" t="n">
-        <v>650.374312787356</v>
+        <v>650.3743127873566</v>
       </c>
       <c r="U10" t="n">
-        <v>650.374312787356</v>
+        <v>650.3743127873566</v>
       </c>
       <c r="V10" t="n">
-        <v>650.374312787356</v>
+        <v>478.5226064587566</v>
       </c>
       <c r="W10" t="n">
-        <v>650.374312787356</v>
+        <v>403.5966741894638</v>
       </c>
       <c r="X10" t="n">
-        <v>650.374312787356</v>
+        <v>231.7449678608638</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.6137758125226</v>
+        <v>59.89326153226385</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5050,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1941.434309135586</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,34 +6007,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6189,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="26">
@@ -6208,58 +6208,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,28 +6697,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306002</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C34" t="n">
-        <v>2733.85948200142</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>2733.85948200142</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.85948200142</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053497</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076438</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420636</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177789</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279772</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136242</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7159,52 +7159,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7505,10 +7505,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4288.376853076439</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4038.586459480718</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3749.169289443757</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.38715940221</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,64 +7636,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
@@ -7836,22 +7836,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.379442165859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>256.7644825146879</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>264.5839477933977</v>
       </c>
       <c r="N2" t="n">
-        <v>263.3879167614743</v>
+        <v>261.34821032935</v>
       </c>
       <c r="O2" t="n">
-        <v>264.993021668346</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>268.4117974997384</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>174.3611053575724</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
         <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3015543884808</v>
+        <v>179.2618479563565</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>255.9772818167572</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>257.2476482458454</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>257.3971651030746</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>173.8211892316314</v>
       </c>
       <c r="M6" t="n">
-        <v>168.2998526529178</v>
+        <v>176.8437648107177</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
@@ -8312,10 +8312,10 @@
         <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605357</v>
+        <v>29.40848459605334</v>
       </c>
       <c r="L8" t="n">
-        <v>169.3425079555998</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>137.264073208661</v>
+        <v>137.2640732086608</v>
       </c>
       <c r="N8" t="n">
-        <v>5.695234787446488</v>
+        <v>132.0718040433897</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>24.71968677620038</v>
       </c>
       <c r="P8" t="n">
-        <v>15.67159251783542</v>
+        <v>185.8047817831492</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>60.42805331804618</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039641028</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291752315</v>
+        <v>8.328260291752173</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874635</v>
+        <v>134.5411173874634</v>
       </c>
       <c r="M9" t="n">
-        <v>109.0465280602391</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>92.87555912359096</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>121.9017887632562</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>100.8370526690909</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.4471574125361</v>
+        <v>37.60103822001969</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-5.142118373497812e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-1.55346140669325e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-3.371181585577118e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-2.540213379297602e-13</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>121.5862749664513</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.09054721822739</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>218.5536561769547</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>35.40333084624527</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>77.24602870709182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>13.2868665006587</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>66.73277020259223</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.0084629450603</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.845153664064156</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12.10766347585303</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
@@ -26328,31 +26328,31 @@
         <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210059</v>
@@ -26371,13 +26371,13 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543781</v>
+        <v>325486.3975543785</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756738</v>
+        <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.139525673937183e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573667</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184398</v>
+        <v>852.8104317183228</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031372</v>
+        <v>29443.81509031376</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299116</v>
+        <v>249845.7249299115</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278905</v>
+        <v>306360.6503278904</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171958</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719616</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719563</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719642</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719626</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719642</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719711</v>
+        <v>7507.368461719636</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.5257124148</v>
+        <v>52100.52571241482</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270434.0890951103</v>
+        <v>270434.0890951102</v>
       </c>
       <c r="C6" t="n">
-        <v>299991.6993932325</v>
+        <v>299991.6993932329</v>
       </c>
       <c r="D6" t="n">
-        <v>54990.01928317135</v>
+        <v>54990.01928317198</v>
       </c>
       <c r="E6" t="n">
-        <v>-481005.9223213594</v>
+        <v>-481353.3015757159</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.0414353785</v>
+        <v>617454.6621810215</v>
       </c>
       <c r="G6" t="n">
-        <v>617802.041435379</v>
+        <v>617454.6621810216</v>
       </c>
       <c r="H6" t="n">
-        <v>617802.0414353784</v>
+        <v>617454.6621810216</v>
       </c>
       <c r="I6" t="n">
-        <v>617802.0414353786</v>
+        <v>617454.6621810216</v>
       </c>
       <c r="J6" t="n">
-        <v>604593.5369296423</v>
+        <v>604246.1576752851</v>
       </c>
       <c r="K6" t="n">
-        <v>616949.2310036602</v>
+        <v>616601.8517493034</v>
       </c>
       <c r="L6" t="n">
-        <v>588358.2263450648</v>
+        <v>588010.847090708</v>
       </c>
       <c r="M6" t="n">
-        <v>367956.3165054669</v>
+        <v>367608.9372511101</v>
       </c>
       <c r="N6" t="n">
-        <v>617802.0414353787</v>
+        <v>617454.6621810212</v>
       </c>
       <c r="O6" t="n">
-        <v>617802.0414353787</v>
+        <v>617454.6621810216</v>
       </c>
       <c r="P6" t="n">
-        <v>617802.0414353788</v>
+        <v>617454.6621810222</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075103</v>
+        <v>372.8820094075107</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653138</v>
+        <v>170.133189265314</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,13 +26965,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883849</v>
+        <v>337.8607486883854</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341635</v>
+        <v>995.093490934163</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846912</v>
+        <v>116.3368712846913</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,25 +27035,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507655</v>
+        <v>50.48273419507677</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546143</v>
+        <v>3.313583785545688</v>
       </c>
       <c r="L4" t="n">
-        <v>116.336871284691</v>
+        <v>116.3368712846911</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27263,10 +27263,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846912</v>
+        <v>116.3368712846913</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>374.8421291776601</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>288.0445872958018</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
@@ -27429,19 +27429,19 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>200.8555174238556</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>298.7582345223365</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.0679913708439</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.2257647932392</v>
       </c>
       <c r="D3" t="n">
-        <v>96.96233136956221</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>86.81128248461911</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>52.61926974801418</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>129.3492459868608</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.047096124824</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,7 +27554,7 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4366026492081</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27563,7 +27563,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>177.2855390059461</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>201.6549091287515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.1019191570182</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>311.4765737903849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>356.5845674639603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
         <v>284.2366289136782</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>157.6643252403134</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>168.683227789346</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>119.1493867725349</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>103.8487624747783</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>83.47187043311668</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>57.71160912282181</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>33.00675924206476</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.68452591975693</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.298898899972</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>127.2256728410167</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>94.81915503758972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>92.63764466594654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>92.81474068201064</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>114.1315082847361</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>211.7971808069478</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763976</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>243.6705250964242</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>152.684799449067</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782106</v>
+        <v>4.727890212896597</v>
       </c>
       <c r="T8" t="n">
-        <v>104.9382775705744</v>
+        <v>216.5338757101359</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>179.107779452099</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>296.2636524586036</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>126.5728504277745</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723001908</v>
+        <v>2.575309723001766</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
@@ -27952,7 +27952,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642492</v>
+        <v>61.78225762642489</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271183</v>
+        <v>50.36049712271177</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015661</v>
+        <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
-        <v>26.79872276304079</v>
+        <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
         <v>225.8886157588888</v>
       </c>
       <c r="V9" t="n">
-        <v>226.7923339937291</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2823524375328</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.00445405851403</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>212.3463253899911</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>55.57646612372318</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.17172174700977</v>
+        <v>48.45146408678082</v>
       </c>
     </row>
     <row r="11">
@@ -28809,16 +28809,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.497671746621677e-15</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28866,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.221727186500901e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-2.708378238821925e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-8.221727186500892e-14</v>
       </c>
     </row>
     <row r="27">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397025</v>
+        <v>1.499023153397027</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972729</v>
+        <v>15.35187086972731</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133887</v>
+        <v>57.79109012133894</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656309</v>
+        <v>127.227716365631</v>
       </c>
       <c r="K8" t="n">
-        <v>190.681366448927</v>
+        <v>190.6813664489272</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797013</v>
+        <v>236.5570962797015</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839256</v>
+        <v>263.2153492839259</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185149</v>
+        <v>267.4744488185152</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369232</v>
+        <v>252.5685373369235</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374341</v>
+        <v>215.5614032374344</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564031</v>
+        <v>161.8776365564033</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957597</v>
+        <v>94.16301315957608</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803474</v>
+        <v>34.15899010803479</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995481</v>
+        <v>6.561973853995489</v>
       </c>
       <c r="U8" t="n">
-        <v>0.119921852271762</v>
+        <v>0.1199218522717621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067203</v>
+        <v>0.8020480957067212</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220168</v>
+        <v>7.746096082220177</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499015</v>
+        <v>27.61437522499019</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025642</v>
+        <v>75.77595627025651</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826067</v>
+        <v>129.5131786826068</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577245</v>
+        <v>174.1464516577247</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270931</v>
+        <v>203.2206951270933</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250562</v>
+        <v>208.5993422250564</v>
       </c>
       <c r="O9" t="n">
-        <v>190.827644946502</v>
+        <v>190.8276449465022</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319263</v>
+        <v>153.1560087319264</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660017</v>
+        <v>102.3807358660018</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7973370299313</v>
+        <v>49.79733702993136</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227175</v>
+        <v>14.89769160227176</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666466998</v>
+        <v>3.232816666467002</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596846</v>
+        <v>0.05276632208596852</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987889</v>
+        <v>0.6724101808987898</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172874</v>
+        <v>5.978337790172881</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557449</v>
+        <v>20.22120798557452</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954438</v>
+        <v>47.53939978954443</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078656</v>
+        <v>78.12183738078664</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017088</v>
+        <v>99.969055440171</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657983</v>
+        <v>105.4033522657985</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369938</v>
+        <v>102.897096136994</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013067</v>
+        <v>95.0421226601308</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979531</v>
+        <v>81.32495496979541</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053405</v>
+        <v>56.30518342053412</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114008</v>
+        <v>30.23400686114012</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711798</v>
+        <v>11.718275607118</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385734</v>
+        <v>2.873025318385737</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0366769189581158</v>
+        <v>0.03667691895811585</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>477.8500485393211</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>309.9424824173362</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>230.1272937575231</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="N2" t="n">
         <v>48.44302776295223</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>50.48273419507654</v>
-      </c>
       <c r="O2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.51290893396359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
-        <v>50.48273419507654</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="N5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>46.40980178192013</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="M6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="M6" t="n">
-        <v>45.25240582282281</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110184</v>
+        <v>115.2784270110185</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>170.1331892653138</v>
+        <v>0.7906813097143015</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1331892653138</v>
+        <v>170.133189265314</v>
       </c>
       <c r="N8" t="n">
-        <v>43.75662000937044</v>
+        <v>170.133189265314</v>
       </c>
       <c r="O8" t="n">
-        <v>22.47032591523649</v>
+        <v>47.19001269143718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418583</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>75.02936494399866</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1331892653138</v>
+        <v>170.133189265314</v>
       </c>
       <c r="M9" t="n">
-        <v>170.1331892653138</v>
+        <v>61.08666120507502</v>
       </c>
       <c r="N9" t="n">
-        <v>170.1331892653138</v>
+        <v>77.25763014172313</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205754</v>
+        <v>170.133189265314</v>
       </c>
       <c r="P9" t="n">
-        <v>19.18160131759603</v>
+        <v>120.0186539866871</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.84611919251633</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490371</v>
+        <v>55.85234555490379</v>
       </c>
       <c r="L10" t="n">
-        <v>127.559080700487</v>
+        <v>127.5590807004871</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276389</v>
+        <v>144.987229227639</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162224</v>
+        <v>147.0292685162225</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741703</v>
+        <v>119.6272505741705</v>
       </c>
       <c r="P10" t="n">
-        <v>78.6035142346888</v>
+        <v>78.6035142346889</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>339.2956687594469</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224318</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>98.78558167418976</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3273751.371753961</v>
+        <v>3275511.902056745</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18.28182508062843</v>
+      </c>
+      <c r="I2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40.36809222617124</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="G3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.4651922790234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.386866521745219</v>
+      </c>
+      <c r="F4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="E4" t="n">
-        <v>8.386866521745231</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,56 +895,56 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="G5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="H5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>25.3458026083015</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.3837968773324</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>47.38379687733241</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="G6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.6063073409206</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>52.60630734092059</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>170.133189265314</v>
+        <v>97.79188377782421</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="G8" t="n">
         <v>13.80371436173802</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>152.6847994490669</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.7061047815736</v>
+        <v>55.70610478157352</v>
       </c>
       <c r="S8" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>73.46744821986543</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.96033322209286</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>18.49636196560992</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712834</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116026</v>
+        <v>29.85685983116021</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>74.17667294659991</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>170.133189265314</v>
+        <v>1.161000036228329</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>6.228861054224671</v>
       </c>
       <c r="U13" t="n">
-        <v>35.66650366117342</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7722084536801</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>7.155999212082404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701363</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1208074460236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>238.8507768231693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.43007309478924</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899574</v>
+        <v>269.2885714699228</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="E2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="F2" t="n">
-        <v>99.94561517409093</v>
+        <v>93.00011442488746</v>
       </c>
       <c r="G2" t="n">
+        <v>77.63625442101738</v>
+      </c>
+      <c r="H2" t="n">
         <v>59.16976444058463</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.177103637477007</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4354,28 +4354,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="V2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="W2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.0239403418214</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C3" t="n">
-        <v>55.03127953871374</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D3" t="n">
-        <v>55.03127953871374</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="E3" t="n">
-        <v>55.03127953871374</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="F3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
         <v>4.038618735606123</v>
@@ -4415,46 +4415,46 @@
         <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>54.01652558873189</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="N3" t="n">
-        <v>103.9944324418577</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O3" t="n">
         <v>151.9530299271804</v>
       </c>
       <c r="P3" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.50286188391095</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="C4" t="n">
-        <v>63.50286188391095</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="D4" t="n">
-        <v>12.51020108080333</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="E4" t="n">
-        <v>4.038618735606123</v>
+        <v>157.016601144929</v>
       </c>
       <c r="F4" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="G4" t="n">
-        <v>4.038618735606123</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="H4" t="n">
         <v>4.038618735606123</v>
@@ -4518,22 +4518,22 @@
         <v>165.4881834901262</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="W4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="X4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>215.1852719224906</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="C5" t="n">
-        <v>215.1852719224906</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="D5" t="n">
-        <v>215.1852719224906</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="E5" t="n">
-        <v>215.1852719224906</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="F5" t="n">
-        <v>160.8455567905485</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>106.5058416586064</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>52.16612652666438</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4573,46 +4573,46 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="M5" t="n">
-        <v>108.6685623208577</v>
+        <v>50.24940920255072</v>
       </c>
       <c r="N5" t="n">
-        <v>161.9269171216741</v>
+        <v>103.5077640033671</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1852719224906</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="P5" t="n">
-        <v>215.1852719224906</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="S5" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T5" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U5" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V5" t="n">
-        <v>215.1852719224906</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="W5" t="n">
-        <v>215.1852719224906</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="X5" t="n">
-        <v>215.1852719224906</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="Y5" t="n">
-        <v>215.1852719224906</v>
+        <v>135.2437359740823</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.322850834276</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C6" t="n">
-        <v>167.322850834276</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D6" t="n">
-        <v>167.322850834276</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E6" t="n">
-        <v>167.322850834276</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="F6" t="n">
-        <v>167.322850834276</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>4.303705438449811</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>55.4102075200413</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="M6" t="n">
         <v>108.6685623208577</v>
@@ -4661,10 +4661,10 @@
         <v>108.6685623208577</v>
       </c>
       <c r="O6" t="n">
+        <v>108.6685623208577</v>
+      </c>
+      <c r="P6" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="P6" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="C7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="D7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="E7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="F7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="R7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="S7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="U7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="V7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="X7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.8641862134551</v>
+        <v>73.72650203070704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.351008038966</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="C8" t="n">
-        <v>206.351008038966</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="D8" t="n">
-        <v>206.351008038966</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="E8" t="n">
-        <v>34.49930171036598</v>
+        <v>353.6325774403354</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116252</v>
+        <v>181.7808711117352</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122512</v>
+        <v>167.8377252917978</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122512</v>
+        <v>167.8377252917978</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821335</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821335</v>
+        <v>182.0425125138861</v>
       </c>
       <c r="L8" t="n">
-        <v>128.5190723787506</v>
+        <v>350.474369886547</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9509297514114</v>
+        <v>452.1745056628055</v>
       </c>
       <c r="N8" t="n">
-        <v>465.3827871240723</v>
+        <v>489.8552770325109</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1008996885951</v>
+        <v>512.1008996885955</v>
       </c>
       <c r="P8" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525957</v>
+        <v>624.2639643525963</v>
       </c>
       <c r="S8" t="n">
-        <v>452.4122580239957</v>
+        <v>624.2639643525963</v>
       </c>
       <c r="T8" t="n">
-        <v>452.4122580239957</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="U8" t="n">
-        <v>452.4122580239957</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="V8" t="n">
-        <v>452.4122580239957</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="W8" t="n">
-        <v>280.5605516953957</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="X8" t="n">
-        <v>206.351008038966</v>
+        <v>452.4122580239962</v>
       </c>
       <c r="Y8" t="n">
-        <v>206.351008038966</v>
+        <v>452.4122580239962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640.1687841096469</v>
+        <v>493.634226136532</v>
       </c>
       <c r="C9" t="n">
-        <v>468.3170777810469</v>
+        <v>321.7825198079319</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197957</v>
+        <v>172.8481101466806</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143402</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J9" t="n">
-        <v>87.8897264357838</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="K9" t="n">
-        <v>87.8897264357838</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="L9" t="n">
-        <v>256.3215838084446</v>
+        <v>48.84680630029734</v>
       </c>
       <c r="M9" t="n">
-        <v>316.7973784014689</v>
+        <v>109.3226008933218</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2824322417748</v>
+        <v>277.7544582659827</v>
       </c>
       <c r="O9" t="n">
-        <v>561.7142896144356</v>
+        <v>446.1863156386437</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612559</v>
+        <v>512.1008996885955</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.5327570612559</v>
+        <v>661.8495631566</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.89326153226385</v>
+        <v>477.3498791494355</v>
       </c>
       <c r="C10" t="n">
-        <v>59.89326153226385</v>
+        <v>308.4136962215286</v>
       </c>
       <c r="D10" t="n">
-        <v>59.89326153226385</v>
+        <v>308.4136962215286</v>
       </c>
       <c r="E10" t="n">
-        <v>59.89326153226385</v>
+        <v>160.5006026391355</v>
       </c>
       <c r="F10" t="n">
-        <v>59.89326153226385</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="G10" t="n">
-        <v>59.89326153226385</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H10" t="n">
-        <v>59.89326153226385</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I10" t="n">
-        <v>59.89326153226385</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057989</v>
+        <v>68.90447724057992</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340621</v>
+        <v>195.1879671340624</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694248</v>
+        <v>338.7253240694251</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004851</v>
+        <v>484.2842999004855</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689138</v>
+        <v>602.7152779689144</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612565</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="T10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="U10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="V10" t="n">
-        <v>478.5226064587566</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="W10" t="n">
-        <v>403.5966741894638</v>
+        <v>650.3743127873572</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7449678608638</v>
+        <v>649.2015854780357</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.89326153226385</v>
+        <v>649.2015854780357</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U13" t="n">
-        <v>1941.434309135586</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.749820929699</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W13" t="n">
-        <v>1397.332650892738</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.343099994721</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511906</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,58 +5740,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532801</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2237.723229879451</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.121764902392</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.046538246589</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.362050040702</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X25" t="n">
-        <v>1204.10161732705</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3090381835199</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421613</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6682,34 +6682,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207406</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7159,49 +7159,49 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
@@ -7210,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7666,10 +7666,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7693,7 +7693,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D46" t="n">
         <v>779.6143379232836</v>
@@ -7803,55 +7803,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
         <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
-        <v>168.9501955242219</v>
+        <v>166.9104890920976</v>
       </c>
       <c r="O3" t="n">
-        <v>179.2618479563565</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1458149818875</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,10 +8221,10 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>257.2476482458454</v>
+        <v>252.0347206524205</v>
       </c>
       <c r="N5" t="n">
         <v>258.0880505088102</v>
@@ -8233,10 +8233,10 @@
         <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>173.8211892316314</v>
+        <v>167.4508656791093</v>
       </c>
       <c r="M6" t="n">
-        <v>176.8437648107177</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>178.4699366681766</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
         <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>53.81818816105513</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605334</v>
+        <v>199.5416738613673</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>169.3425079555996</v>
       </c>
       <c r="M8" t="n">
-        <v>137.2640732086608</v>
+        <v>69.85829381835519</v>
       </c>
       <c r="N8" t="n">
-        <v>132.0718040433897</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>24.71968677620038</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831492</v>
+        <v>185.8047817831491</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.42805331804618</v>
+        <v>60.42805331804604</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>51.06167039641011</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291752173</v>
+        <v>8.328260291752059</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874634</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>92.87555912359082</v>
       </c>
       <c r="O9" t="n">
-        <v>121.9017887632562</v>
+        <v>121.9017887632561</v>
       </c>
       <c r="P9" t="n">
-        <v>100.8370526690909</v>
+        <v>47.39878661164792</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001969</v>
+        <v>207.7342274853337</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-5.142118373497812e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1.55346140669325e-12</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-3.371181585577118e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.540213379297602e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>211.1765892730636</v>
       </c>
       <c r="U13" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>40.2540775479645</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>218.5536561769547</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>35.40333084624527</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>13.2868665006587</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228704</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.99097492814201</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992868</v>
+        <v>16.89590291932132</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210059</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543785</v>
+        <v>325486.3975543789</v>
       </c>
       <c r="E3" t="n">
         <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
-        <v>1.139525673937183e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573667</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317183228</v>
+        <v>852.8104317183812</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031376</v>
+        <v>29443.81509031396</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299115</v>
+        <v>249845.7249299114</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278904</v>
+        <v>306360.6503278903</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171958</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719563</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719626</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.36846171975</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241482</v>
+        <v>52100.52571241483</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270434.0890951102</v>
+        <v>270434.0890951101</v>
       </c>
       <c r="C6" t="n">
-        <v>299991.6993932329</v>
+        <v>299991.6993932324</v>
       </c>
       <c r="D6" t="n">
-        <v>54990.01928317198</v>
+        <v>54990.01928317126</v>
       </c>
       <c r="E6" t="n">
-        <v>-481353.3015757159</v>
+        <v>-481040.6602467938</v>
       </c>
       <c r="F6" t="n">
-        <v>617454.6621810215</v>
+        <v>617767.3035099432</v>
       </c>
       <c r="G6" t="n">
-        <v>617454.6621810216</v>
+        <v>617767.303509943</v>
       </c>
       <c r="H6" t="n">
-        <v>617454.6621810216</v>
+        <v>617767.303509943</v>
       </c>
       <c r="I6" t="n">
-        <v>617454.6621810216</v>
+        <v>617767.303509943</v>
       </c>
       <c r="J6" t="n">
-        <v>604246.1576752851</v>
+        <v>604558.7990042063</v>
       </c>
       <c r="K6" t="n">
-        <v>616601.8517493034</v>
+        <v>616914.4930782245</v>
       </c>
       <c r="L6" t="n">
-        <v>588010.847090708</v>
+        <v>588323.4884196289</v>
       </c>
       <c r="M6" t="n">
-        <v>367608.9372511101</v>
+        <v>367921.5785800312</v>
       </c>
       <c r="N6" t="n">
-        <v>617454.6621810212</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="O6" t="n">
-        <v>617454.6621810216</v>
+        <v>617767.303509943</v>
       </c>
       <c r="P6" t="n">
-        <v>617454.6621810222</v>
+        <v>617767.3035099428</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075107</v>
+        <v>372.8820094075111</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,28 +26804,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26965,13 +26965,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883854</v>
+        <v>337.8607486883857</v>
       </c>
       <c r="E3" t="n">
-        <v>995.093490934163</v>
+        <v>995.0934909341627</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846915</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834334</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507677</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785545688</v>
+        <v>3.313583785545916</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846911</v>
+        <v>116.3368712846919</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846915</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>374.8421291776601</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>288.0445872958018</v>
+        <v>320.2454964102499</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>156.4264279942944</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>298.7582345223365</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27466,13 +27466,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.6040201143605</v>
       </c>
       <c r="G3" t="n">
-        <v>86.81128248461911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>52.61926974801418</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.3492459868608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>98.13273882313581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>138.047096124824</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>94.9383138278547</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>117.4667456208323</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>111.3754696522371</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27590,7 +27590,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>177.2855390059461</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.9375236828579</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>300.8867236400603</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>353.0797277610888</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>361.3656305466968</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>284.2366289136782</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>157.6643252403134</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>87.22896370465668</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27675,7 +27675,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>302.4064558618334</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.1493867725349</v>
+        <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>100.0612686873063</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>103.8487624747783</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>91.27289441276125</v>
       </c>
       <c r="G6" t="n">
-        <v>83.47187043311668</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>57.71160912282181</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>33.00675924206476</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.2256728410167</v>
+        <v>126.0356622013147</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.07751490248382</v>
+        <v>28.26752554218587</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>164.7883353714722</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069478</v>
+        <v>284.1384862944376</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>236.7428564763973</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.684799449067</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.727890212896597</v>
+        <v>174.8610794782105</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101359</v>
+        <v>46.40068644482174</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>179.107779452099</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.2636524586036</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.5728504277745</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723001766</v>
+        <v>2.575309723001624</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
@@ -27952,7 +27952,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642489</v>
+        <v>61.78225762642487</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271177</v>
+        <v>50.36049712271173</v>
       </c>
       <c r="S9" t="n">
         <v>156.785479501566</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>187.1863338116944</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>9.698790916623182</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.31856917756</v>
@@ -28031,10 +28031,10 @@
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416838</v>
+        <v>135.2292669416837</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.8197803271283</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160294</v>
+        <v>147.0593845160293</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298543</v>
+        <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
@@ -28070,16 +28070,16 @@
         <v>286.2823524375328</v>
       </c>
       <c r="V10" t="n">
-        <v>82.00445405851403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>212.3463253899911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>55.57646612372318</v>
+        <v>224.5486553528088</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.45146408678082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28809,16 +28809,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.497671746621677e-15</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28866,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-2.708378238821925e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8.221727186500892e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.641133868265976e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397027</v>
+        <v>1.499023153397028</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972731</v>
+        <v>15.35187086972732</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133894</v>
+        <v>57.79109012133899</v>
       </c>
       <c r="J8" t="n">
-        <v>127.227716365631</v>
+        <v>127.2277163656312</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489272</v>
+        <v>190.6813664489274</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797015</v>
+        <v>236.5570962797017</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839259</v>
+        <v>263.2153492839261</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185152</v>
+        <v>267.4744488185155</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369235</v>
+        <v>252.5685373369238</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374344</v>
+        <v>215.5614032374346</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564033</v>
+        <v>161.8776365564034</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957608</v>
+        <v>94.16301315957617</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803479</v>
+        <v>34.15899010803481</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995489</v>
+        <v>6.561973853995495</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717621</v>
+        <v>0.1199218522717622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067212</v>
+        <v>0.802048095706722</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220177</v>
+        <v>7.746096082220184</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499019</v>
+        <v>27.61437522499021</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025651</v>
+        <v>75.77595627025659</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826068</v>
+        <v>129.5131786826069</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577247</v>
+        <v>174.1464516577249</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270933</v>
+        <v>203.2206951270935</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250564</v>
+        <v>208.5993422250566</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465022</v>
+        <v>190.8276449465024</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319264</v>
+        <v>153.1560087319266</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660018</v>
+        <v>102.3807358660019</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993136</v>
+        <v>49.79733702993141</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227176</v>
+        <v>14.89769160227178</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467002</v>
+        <v>3.232816666467005</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596852</v>
+        <v>0.05276632208596857</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987898</v>
+        <v>0.6724101808987903</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172881</v>
+        <v>5.978337790172886</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557452</v>
+        <v>20.22120798557454</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954443</v>
+        <v>47.53939978954448</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078664</v>
+        <v>78.12183738078672</v>
       </c>
       <c r="L10" t="n">
-        <v>99.969055440171</v>
+        <v>99.96905544017109</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657985</v>
+        <v>105.4033522657986</v>
       </c>
       <c r="N10" t="n">
-        <v>102.897096136994</v>
+        <v>102.8970961369941</v>
       </c>
       <c r="O10" t="n">
-        <v>95.0421226601308</v>
+        <v>95.04212266013089</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979541</v>
+        <v>81.32495496979548</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053412</v>
+        <v>56.30518342053417</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114012</v>
+        <v>30.23400686114015</v>
       </c>
       <c r="S10" t="n">
-        <v>11.718275607118</v>
+        <v>11.71827560711801</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385737</v>
+        <v>2.87302531838574</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811585</v>
+        <v>0.03667691895811588</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="O3" t="n">
-        <v>48.44302776295223</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>51.62272937534495</v>
+        <v>46.40980178192011</v>
       </c>
       <c r="N5" t="n">
         <v>53.79631798062264</v>
@@ -34953,10 +34953,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>51.62272937534495</v>
+        <v>45.25240582282281</v>
       </c>
       <c r="M6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110185</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097143015</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="M8" t="n">
-        <v>170.133189265314</v>
+        <v>102.7274098750086</v>
       </c>
       <c r="N8" t="n">
-        <v>170.133189265314</v>
+        <v>38.06138522192458</v>
       </c>
       <c r="O8" t="n">
-        <v>47.19001269143718</v>
+        <v>22.47032591523703</v>
       </c>
       <c r="P8" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399866</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>170.133189265314</v>
+        <v>35.59207187785071</v>
       </c>
       <c r="M9" t="n">
-        <v>61.08666120507502</v>
+        <v>61.08666120507519</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172313</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="O9" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="P9" t="n">
-        <v>120.0186539866871</v>
+        <v>66.58038792924427</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490379</v>
+        <v>55.85234555490386</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004871</v>
+        <v>127.5590807004872</v>
       </c>
       <c r="M10" t="n">
-        <v>144.987229227639</v>
+        <v>144.9872292276391</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162225</v>
+        <v>147.0292685162227</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741705</v>
+        <v>119.6272505741706</v>
       </c>
       <c r="P10" t="n">
-        <v>78.6035142346889</v>
+        <v>78.60351423468897</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>339.2956687594469</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
